--- a/results/all_scaling.xlsx
+++ b/results/all_scaling.xlsx
@@ -2,22 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamossolomou/Desktop/Fourth Year EEE/High Performance Computing /hpce-2017-cw2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="all_scaling" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="all_scaling" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="67" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -79,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -115,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,11 +169,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scaling in</a:t>
+              <a:t>Scaling</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> parallel outer implementation</a:t>
+              <a:t> vs num_Processors (Direct DFT parallel outer)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -243,7 +247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$5:$A$8</c:f>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -264,12 +268,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$5:$B$8</c:f>
+              <c:f>Sheet1!$B$5:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.931192660550459</c:v>
+                  <c:v>0.931192660550459</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.015</c:v>
@@ -317,7 +321,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$5:$A$8</c:f>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -338,12 +342,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$5:$C$8</c:f>
+              <c:f>Sheet1!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.888056312443234</c:v>
+                  <c:v>0.888056312443234</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.363668061366806</c:v>
@@ -391,7 +395,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$5:$A$8</c:f>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -412,12 +416,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$D$8</c:f>
+              <c:f>Sheet1!$D$5:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.99848071119141</c:v>
+                  <c:v>0.99848071119141</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.037526133890856</c:v>
@@ -441,11 +445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123411808"/>
-        <c:axId val="2123414784"/>
+        <c:axId val="320543360"/>
+        <c:axId val="324876096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123411808"/>
+        <c:axId val="320543360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,13 +490,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Allowed </a:t>
+                  <a:t>P - Number of processors</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t>Processors - P</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -526,6 +525,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -562,12 +562,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123414784"/>
+        <c:crossAx val="324876096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123414784"/>
+        <c:axId val="324876096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123411808"/>
+        <c:crossAx val="320543360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -752,11 +752,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1316,25 +1311,29 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6067778"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1347,7 +1346,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1366,7 +1365,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Implementation" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+        <s v=" hpce.direct_fourier_transform"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Tmax" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
@@ -1452,7 +1454,7 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="227">
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="0"/>
@@ -1462,7 +1464,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="1"/>
@@ -1472,7 +1474,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="2"/>
@@ -1482,7 +1484,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="3"/>
@@ -1492,7 +1494,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="4"/>
@@ -1502,7 +1504,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="5"/>
@@ -1512,7 +1514,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="6"/>
@@ -1522,7 +1524,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="7"/>
@@ -1532,7 +1534,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="8"/>
@@ -1542,7 +1544,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="9"/>
@@ -1552,7 +1554,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="10"/>
@@ -1562,7 +1564,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="11"/>
@@ -1572,7 +1574,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="12"/>
@@ -1582,7 +1584,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="13"/>
@@ -1592,7 +1594,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="14"/>
@@ -1602,7 +1604,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="15"/>
@@ -1612,7 +1614,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="16"/>
@@ -1622,7 +1624,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="17"/>
@@ -1632,7 +1634,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="18"/>
@@ -1642,7 +1644,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="19"/>
@@ -1652,7 +1654,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="20"/>
@@ -1662,7 +1664,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="21"/>
@@ -1672,7 +1674,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="22"/>
@@ -1682,7 +1684,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="23"/>
@@ -1692,7 +1694,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="24"/>
@@ -1702,7 +1704,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="25"/>
@@ -1712,7 +1714,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="26"/>
@@ -1722,7 +1724,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="27"/>
@@ -1732,7 +1734,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="28"/>
@@ -1742,7 +1744,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="29"/>
@@ -1752,7 +1754,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="30"/>
@@ -1762,7 +1764,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="31"/>
@@ -1772,7 +1774,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="32"/>
@@ -1782,7 +1784,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="33"/>
@@ -1792,7 +1794,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="34"/>
@@ -1802,7 +1804,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="35"/>
@@ -1812,7 +1814,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="36"/>
@@ -1822,7 +1824,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="37"/>
@@ -1832,7 +1834,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="38"/>
@@ -1842,7 +1844,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="39"/>
@@ -1852,7 +1854,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="40"/>
@@ -1862,7 +1864,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="41"/>
@@ -1872,7 +1874,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="42"/>
@@ -1882,7 +1884,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="4"/>
     <x v="43"/>
@@ -1892,7 +1894,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="0"/>
@@ -1902,7 +1904,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="1"/>
@@ -1912,7 +1914,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="2"/>
@@ -1922,7 +1924,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="3"/>
@@ -1932,7 +1934,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="4"/>
@@ -1942,7 +1944,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="5"/>
@@ -1952,7 +1954,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="6"/>
@@ -1962,7 +1964,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="7"/>
@@ -1972,7 +1974,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="8"/>
@@ -1982,7 +1984,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="9"/>
@@ -1992,7 +1994,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="10"/>
@@ -2002,7 +2004,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="11"/>
@@ -2012,7 +2014,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="12"/>
@@ -2022,7 +2024,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="13"/>
@@ -2032,7 +2034,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="14"/>
@@ -2042,7 +2044,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="15"/>
@@ -2052,7 +2054,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="16"/>
@@ -2062,7 +2064,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="17"/>
@@ -2072,7 +2074,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="18"/>
@@ -2082,7 +2084,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="19"/>
@@ -2092,7 +2094,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="20"/>
@@ -2102,7 +2104,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="21"/>
@@ -2112,7 +2114,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="22"/>
@@ -2122,7 +2124,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="23"/>
@@ -2132,7 +2134,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="24"/>
@@ -2142,7 +2144,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="25"/>
@@ -2152,7 +2154,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="26"/>
@@ -2162,7 +2164,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="27"/>
@@ -2172,7 +2174,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="28"/>
@@ -2182,7 +2184,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="29"/>
@@ -2192,7 +2194,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="30"/>
@@ -2202,7 +2204,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="31"/>
@@ -2212,7 +2214,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="32"/>
@@ -2222,7 +2224,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="33"/>
@@ -2232,7 +2234,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="34"/>
@@ -2242,7 +2244,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="35"/>
@@ -2252,7 +2254,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="36"/>
@@ -2262,7 +2264,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="37"/>
@@ -2272,7 +2274,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="38"/>
@@ -2282,7 +2284,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="39"/>
@@ -2292,7 +2294,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="40"/>
@@ -2302,7 +2304,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="41"/>
@@ -2312,7 +2314,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="42"/>
@@ -2322,7 +2324,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="43"/>
@@ -2332,7 +2334,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="44"/>
@@ -2342,7 +2344,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="4"/>
     <x v="45"/>
@@ -2352,7 +2354,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="0"/>
@@ -2362,7 +2364,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="1"/>
@@ -2372,7 +2374,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="2"/>
@@ -2382,7 +2384,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="3"/>
@@ -2392,7 +2394,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="4"/>
@@ -2402,7 +2404,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="5"/>
@@ -2412,7 +2414,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="6"/>
@@ -2422,7 +2424,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="7"/>
@@ -2432,7 +2434,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="8"/>
@@ -2442,7 +2444,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="9"/>
@@ -2452,7 +2454,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="10"/>
@@ -2462,7 +2464,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="11"/>
@@ -2472,7 +2474,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="12"/>
@@ -2482,7 +2484,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="13"/>
@@ -2492,7 +2494,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="14"/>
@@ -2502,7 +2504,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="15"/>
@@ -2512,7 +2514,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="16"/>
@@ -2522,7 +2524,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="17"/>
@@ -2532,7 +2534,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="18"/>
@@ -2542,7 +2544,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="19"/>
@@ -2552,7 +2554,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="20"/>
@@ -2562,7 +2564,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="21"/>
@@ -2572,7 +2574,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="22"/>
@@ -2582,7 +2584,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="23"/>
@@ -2592,7 +2594,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="24"/>
@@ -2602,7 +2604,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="25"/>
@@ -2612,7 +2614,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="26"/>
@@ -2622,7 +2624,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="27"/>
@@ -2632,7 +2634,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="28"/>
@@ -2642,7 +2644,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="29"/>
@@ -2652,7 +2654,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="30"/>
@@ -2662,7 +2664,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="31"/>
@@ -2672,7 +2674,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="32"/>
@@ -2682,7 +2684,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="33"/>
@@ -2692,7 +2694,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="34"/>
@@ -2702,7 +2704,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="35"/>
@@ -2712,7 +2714,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="36"/>
@@ -2722,7 +2724,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="37"/>
@@ -2732,7 +2734,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="38"/>
@@ -2742,7 +2744,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="39"/>
@@ -2752,7 +2754,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="40"/>
@@ -2762,7 +2764,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="41"/>
@@ -2772,7 +2774,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="42"/>
@@ -2782,7 +2784,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="43"/>
@@ -2792,7 +2794,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="44"/>
@@ -2802,7 +2804,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="4"/>
     <x v="45"/>
@@ -2812,7 +2814,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="0"/>
@@ -2822,7 +2824,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="1"/>
@@ -2832,7 +2834,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="2"/>
@@ -2842,7 +2844,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="3"/>
@@ -2852,7 +2854,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="4"/>
@@ -2862,7 +2864,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="5"/>
@@ -2872,7 +2874,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="6"/>
@@ -2882,7 +2884,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="7"/>
@@ -2892,7 +2894,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="8"/>
@@ -2902,7 +2904,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="9"/>
@@ -2912,7 +2914,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="10"/>
@@ -2922,7 +2924,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="11"/>
@@ -2932,7 +2934,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="12"/>
@@ -2942,7 +2944,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="13"/>
@@ -2952,7 +2954,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="14"/>
@@ -2962,7 +2964,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="15"/>
@@ -2972,7 +2974,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="16"/>
@@ -2982,7 +2984,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="17"/>
@@ -2992,7 +2994,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="18"/>
@@ -3002,7 +3004,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="19"/>
@@ -3012,7 +3014,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="20"/>
@@ -3022,7 +3024,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="21"/>
@@ -3032,7 +3034,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="22"/>
@@ -3042,7 +3044,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="23"/>
@@ -3052,7 +3054,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="24"/>
@@ -3062,7 +3064,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="25"/>
@@ -3072,7 +3074,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="26"/>
@@ -3082,7 +3084,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="27"/>
@@ -3092,7 +3094,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="28"/>
@@ -3102,7 +3104,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="29"/>
@@ -3112,7 +3114,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="30"/>
@@ -3122,7 +3124,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="31"/>
@@ -3132,7 +3134,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="32"/>
@@ -3142,7 +3144,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="33"/>
@@ -3152,7 +3154,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="34"/>
@@ -3162,7 +3164,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="35"/>
@@ -3172,7 +3174,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="36"/>
@@ -3182,7 +3184,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="37"/>
@@ -3192,7 +3194,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="38"/>
@@ -3202,7 +3204,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="39"/>
@@ -3212,7 +3214,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="40"/>
@@ -3222,7 +3224,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="41"/>
@@ -3232,7 +3234,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="42"/>
@@ -3242,7 +3244,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="43"/>
@@ -3252,7 +3254,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="44"/>
@@ -3262,7 +3264,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="45"/>
@@ -3272,7 +3274,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v=" hpce.aes414.direct_fourier_transform_parfor_outer"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="4"/>
     <x v="46"/>
@@ -3282,7 +3284,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="0"/>
@@ -3292,7 +3294,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="1"/>
@@ -3302,7 +3304,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="2"/>
@@ -3312,7 +3314,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="3"/>
@@ -3322,7 +3324,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="4"/>
@@ -3332,7 +3334,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="5"/>
@@ -3342,7 +3344,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="6"/>
@@ -3352,7 +3354,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="7"/>
@@ -3362,7 +3364,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="8"/>
@@ -3372,7 +3374,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="9"/>
@@ -3382,7 +3384,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="10"/>
@@ -3392,7 +3394,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="11"/>
@@ -3402,7 +3404,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="12"/>
@@ -3412,7 +3414,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="13"/>
@@ -3422,7 +3424,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="14"/>
@@ -3432,7 +3434,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="15"/>
@@ -3442,7 +3444,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="16"/>
@@ -3452,7 +3454,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="17"/>
@@ -3462,7 +3464,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="18"/>
@@ -3472,7 +3474,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="19"/>
@@ -3482,7 +3484,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="20"/>
@@ -3492,7 +3494,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="21"/>
@@ -3502,7 +3504,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="22"/>
@@ -3512,7 +3514,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="23"/>
@@ -3522,7 +3524,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="24"/>
@@ -3532,7 +3534,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="25"/>
@@ -3542,7 +3544,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="26"/>
@@ -3552,7 +3554,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="27"/>
@@ -3562,7 +3564,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="28"/>
@@ -3572,7 +3574,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="29"/>
@@ -3582,7 +3584,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="30"/>
@@ -3592,7 +3594,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="31"/>
@@ -3602,7 +3604,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="32"/>
@@ -3612,7 +3614,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="33"/>
@@ -3622,7 +3624,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="34"/>
@@ -3632,7 +3634,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="35"/>
@@ -3642,7 +3644,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="36"/>
@@ -3652,7 +3654,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="37"/>
@@ -3662,7 +3664,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="38"/>
@@ -3672,7 +3674,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="39"/>
@@ -3682,7 +3684,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="40"/>
@@ -3692,7 +3694,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="41"/>
@@ -3702,7 +3704,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="42"/>
@@ -3712,7 +3714,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v=" hpce.direct_fourier_transform"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="4"/>
     <x v="43"/>
@@ -3724,19 +3726,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="5">
         <item x="0"/>
@@ -3803,8 +3811,9 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -3841,7 +3850,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Scaling" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Scaling" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4117,35 +4126,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="45" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="45" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="46" max="48" width="6.1640625" customWidth="1"/>
-    <col min="49" max="49" width="12.1640625" customWidth="1"/>
-    <col min="50" max="57" width="3.1640625" customWidth="1"/>
-    <col min="58" max="70" width="4.1640625" customWidth="1"/>
-    <col min="71" max="84" width="5.1640625" customWidth="1"/>
-    <col min="85" max="92" width="6.1640625" customWidth="1"/>
-    <col min="93" max="93" width="6.6640625" customWidth="1"/>
-    <col min="94" max="94" width="4.33203125" customWidth="1"/>
-    <col min="95" max="104" width="3.1640625" customWidth="1"/>
-    <col min="105" max="117" width="4.1640625" customWidth="1"/>
-    <col min="118" max="131" width="5.1640625" customWidth="1"/>
-    <col min="132" max="139" width="6.1640625" customWidth="1"/>
-    <col min="140" max="140" width="6.6640625" customWidth="1"/>
-    <col min="141" max="141" width="4.33203125" customWidth="1"/>
-    <col min="142" max="151" width="3.1640625" customWidth="1"/>
-    <col min="152" max="164" width="4.1640625" customWidth="1"/>
-    <col min="165" max="178" width="5.1640625" customWidth="1"/>
-    <col min="179" max="187" width="6.1640625" customWidth="1"/>
-    <col min="188" max="188" width="6.6640625" customWidth="1"/>
-    <col min="189" max="189" width="10.6640625" customWidth="1"/>
+    <col min="49" max="49" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4178,16 +4172,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>1.9311926605504586</v>
+        <v>0.93119266055045868</v>
       </c>
       <c r="C5" s="4">
-        <v>1.8880563124432337</v>
+        <v>0.88805631244323358</v>
       </c>
       <c r="D5" s="4">
-        <v>1.99848071119141</v>
+        <v>0.99848071119140991</v>
       </c>
       <c r="E5" s="4">
-        <v>5.8177296841851023</v>
+        <v>2.8177296841851023</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4246,21 +4240,20 @@
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>4.2849532556032175</v>
+        <v>3.2849532556032175</v>
       </c>
       <c r="C9" s="4">
-        <v>5.0451689723412185</v>
+        <v>4.0451689723412185</v>
       </c>
       <c r="D9" s="4">
-        <v>4.4031191519286077</v>
+        <v>3.4031191519286077</v>
       </c>
       <c r="E9" s="4">
-        <v>13.733241379873045</v>
+        <v>10.733241379873045</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4268,14 +4261,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showRuler="0" topLeftCell="A146" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4300,7 +4293,7 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4326,7 +4319,7 @@
       <c r="G2" s="1">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <f>G185/(G2*C2)</f>
         <v>0.90697674418604646</v>
       </c>
@@ -4353,7 +4346,7 @@
       <c r="G3" s="1">
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <f>G186/(G3*C3)</f>
         <v>0.48717948717948723</v>
       </c>
@@ -4380,7 +4373,7 @@
       <c r="G4" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H45" si="0">G187/(G4*C4)</f>
         <v>0.80645161290322576</v>
       </c>
@@ -4407,7 +4400,7 @@
       <c r="G5" s="1">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>0.82499999999999996</v>
       </c>
@@ -4434,7 +4427,7 @@
       <c r="G6" s="1">
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>0.8771929824561403</v>
       </c>
@@ -4461,7 +4454,7 @@
       <c r="G7" s="1">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>0.87654320987654322</v>
       </c>
@@ -4488,7 +4481,7 @@
       <c r="G8">
         <v>1.1E-4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>0.89090909090909087</v>
       </c>
@@ -4515,7 +4508,7 @@
       <c r="G9">
         <v>1.5100000000000001E-4</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>1.0066225165562914</v>
       </c>
@@ -4542,7 +4535,7 @@
       <c r="G10">
         <v>2.1800000000000001E-4</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>0.93119266055045868</v>
       </c>
@@ -4569,7 +4562,7 @@
       <c r="G11">
         <v>3.0699999999999998E-4</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>0.94136807817589574</v>
       </c>
@@ -4596,7 +4589,7 @@
       <c r="G12">
         <v>4.6299999999999998E-4</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>0.86609071274298055</v>
       </c>
@@ -4623,7 +4616,7 @@
       <c r="G13">
         <v>4.95E-4</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>1.3090909090909091</v>
       </c>
@@ -4650,7 +4643,7 @@
       <c r="G14">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>1.1557142857142857</v>
       </c>
@@ -4677,7 +4670,7 @@
       <c r="G15">
         <v>1.0759999999999999E-3</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>1.0622676579925652</v>
       </c>
@@ -4704,7 +4697,7 @@
       <c r="G16">
         <v>1.8519999999999999E-3</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
         <v>0.8056155507559396</v>
       </c>
@@ -4731,7 +4724,7 @@
       <c r="G17">
         <v>2.7859999999999998E-3</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
         <v>0.87652548456568569</v>
       </c>
@@ -4758,7 +4751,7 @@
       <c r="G18">
         <v>4.4039999999999999E-3</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
         <v>0.88805631244323358</v>
       </c>
@@ -4785,7 +4778,7 @@
       <c r="G19">
         <v>6.0540000000000004E-3</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>0.86339610175090842</v>
       </c>
@@ -4812,7 +4805,7 @@
       <c r="G20">
         <v>1.0388E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>0.57219869079707353</v>
       </c>
@@ -4839,7 +4832,7 @@
       <c r="G21">
         <v>8.4620000000000008E-3</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="4">
         <f t="shared" si="0"/>
         <v>1.1179390215079177</v>
       </c>
@@ -4866,7 +4859,7 @@
       <c r="G22">
         <v>1.2852000000000001E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="4">
         <f t="shared" si="0"/>
         <v>1.0431839402427638</v>
       </c>
@@ -4893,7 +4886,7 @@
       <c r="G23">
         <v>1.6945000000000002E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
         <v>1.0244910002950722</v>
       </c>
@@ -4920,7 +4913,7 @@
       <c r="G24">
         <v>2.3931000000000001E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>0.95503739918933594</v>
       </c>
@@ -4947,7 +4940,7 @@
       <c r="G25">
         <v>3.7707999999999998E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>0.95324599554471201</v>
       </c>
@@ -4974,7 +4967,7 @@
       <c r="G26">
         <v>4.8707E-2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>0.99848071119140991</v>
       </c>
@@ -5001,7 +4994,7 @@
       <c r="G27">
         <v>6.6292000000000004E-2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>0.96280094129004989</v>
       </c>
@@ -5028,7 +5021,7 @@
       <c r="G28">
         <v>9.4261999999999999E-2</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="4">
         <f t="shared" si="0"/>
         <v>1.0021323545012837</v>
       </c>
@@ -5055,7 +5048,7 @@
       <c r="G29">
         <v>0.13934099999999999</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="4">
         <f t="shared" si="0"/>
         <v>1.0106214251368943</v>
       </c>
@@ -5082,7 +5075,7 @@
       <c r="G30">
         <v>0.189891</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="4">
         <f t="shared" si="0"/>
         <v>0.95270444623494521</v>
       </c>
@@ -5109,7 +5102,7 @@
       <c r="G31">
         <v>0.27431</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <f t="shared" si="0"/>
         <v>0.97199518792606898</v>
       </c>
@@ -5136,7 +5129,7 @@
       <c r="G32">
         <v>0.391208</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>0.94486053454939567</v>
       </c>
@@ -5163,7 +5156,7 @@
       <c r="G33">
         <v>0.53602399999999994</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="4">
         <f t="shared" si="0"/>
         <v>0.98981388893034661</v>
       </c>
@@ -5190,7 +5183,7 @@
       <c r="G34">
         <v>0.77891600000000005</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>0.9332456901642795</v>
       </c>
@@ -5217,7 +5210,7 @@
       <c r="G35">
         <v>1.11937</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="4">
         <f t="shared" si="0"/>
         <v>0.93180092373388601</v>
       </c>
@@ -5244,7 +5237,7 @@
       <c r="G36">
         <v>1.5340499999999999</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="4">
         <f t="shared" si="0"/>
         <v>1.0058798604999837</v>
       </c>
@@ -5271,7 +5264,7 @@
       <c r="G37">
         <v>2.1766999999999999</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="4">
         <f t="shared" si="0"/>
         <v>0.95944778793586616</v>
       </c>
@@ -5298,7 +5291,7 @@
       <c r="G38">
         <v>3.0739100000000001</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <f t="shared" si="0"/>
         <v>0.9579688409875371</v>
       </c>
@@ -5325,7 +5318,7 @@
       <c r="G39">
         <v>4.3123500000000003</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
         <v>1.0141778844481548</v>
       </c>
@@ -5352,7 +5345,7 @@
       <c r="G40">
         <v>6.1124799999999997</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="4">
         <f t="shared" si="0"/>
         <v>1.0025865115305082</v>
       </c>
@@ -5379,7 +5372,7 @@
       <c r="G41">
         <v>8.7141000000000002</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="4">
         <f t="shared" si="0"/>
         <v>1.0100813623896903</v>
       </c>
@@ -5406,7 +5399,7 @@
       <c r="G42">
         <v>12.170500000000001</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="4">
         <f t="shared" si="0"/>
         <v>1.0175259849636415</v>
       </c>
@@ -5433,7 +5426,7 @@
       <c r="G43">
         <v>17.450600000000001</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="4">
         <f t="shared" si="0"/>
         <v>0.98681993742335505</v>
       </c>
@@ -5460,7 +5453,7 @@
       <c r="G44">
         <v>24.4529</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="4">
         <f t="shared" si="0"/>
         <v>0.96936150722409209</v>
       </c>
@@ -5487,7 +5480,7 @@
       <c r="G45">
         <v>34.459000000000003</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="4">
         <f t="shared" si="0"/>
         <v>0.96758466583475999</v>
       </c>
@@ -5514,7 +5507,7 @@
       <c r="G46">
         <v>1.08E-4</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="4">
         <f>G185/(G46*C46)</f>
         <v>0.18055555555555555</v>
       </c>
@@ -5541,7 +5534,7 @@
       <c r="G47" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="4">
         <f t="shared" ref="H47:H89" si="1">G186/(G47*C47)</f>
         <v>0.31666666666666665</v>
       </c>
@@ -5568,7 +5561,7 @@
       <c r="G48" s="1">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="4">
         <f t="shared" si="1"/>
         <v>0.78125000000000011</v>
       </c>
@@ -5595,7 +5588,7 @@
       <c r="G49" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="4">
         <f t="shared" si="1"/>
         <v>0.78571428571428581</v>
       </c>
@@ -5622,7 +5615,7 @@
       <c r="G50" s="1">
         <v>2.8E-5</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="4">
         <f t="shared" si="1"/>
         <v>0.8928571428571429</v>
       </c>
@@ -5649,7 +5642,7 @@
       <c r="G51" s="1">
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="4">
         <f t="shared" si="1"/>
         <v>0.93421052631578949</v>
       </c>
@@ -5676,7 +5669,7 @@
       <c r="G52" s="1">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="4">
         <f t="shared" si="1"/>
         <v>0.90740740740740744</v>
       </c>
@@ -5703,7 +5696,7 @@
       <c r="G53" s="1">
         <v>7.2999999999999999E-5</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="4">
         <f t="shared" si="1"/>
         <v>1.0410958904109591</v>
       </c>
@@ -5730,7 +5723,7 @@
       <c r="G54">
         <v>1E-4</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="4">
         <f t="shared" si="1"/>
         <v>1.0149999999999999</v>
       </c>
@@ -5757,7 +5750,7 @@
       <c r="G55">
         <v>1.4200000000000001E-4</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="4">
         <f t="shared" si="1"/>
         <v>1.0176056338028168</v>
       </c>
@@ -5784,7 +5777,7 @@
       <c r="G56">
         <v>2.02E-4</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="4">
         <f t="shared" si="1"/>
         <v>0.99257425742574257</v>
       </c>
@@ -5811,7 +5804,7 @@
       <c r="G57">
         <v>2.6200000000000003E-4</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="4">
         <f t="shared" si="1"/>
         <v>1.2366412213740456</v>
       </c>
@@ -5838,7 +5831,7 @@
       <c r="G58">
         <v>3.6400000000000001E-4</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="4">
         <f t="shared" si="1"/>
         <v>1.1112637362637363</v>
       </c>
@@ -5865,7 +5858,7 @@
       <c r="G59">
         <v>5.1199999999999998E-4</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="4">
         <f t="shared" si="1"/>
         <v>1.1162109375</v>
       </c>
@@ -5892,7 +5885,7 @@
       <c r="G60">
         <v>7.5100000000000004E-4</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="4">
         <f t="shared" si="1"/>
         <v>0.99334221038615178</v>
       </c>
@@ -5919,7 +5912,7 @@
       <c r="G61">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="4">
         <f t="shared" si="1"/>
         <v>1.1970588235294117</v>
       </c>
@@ -5946,7 +5939,7 @@
       <c r="G62">
         <v>1.4339999999999999E-3</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="4">
         <f t="shared" si="1"/>
         <v>1.3636680613668064</v>
       </c>
@@ -5973,7 +5966,7 @@
       <c r="G63">
         <v>2.235E-3</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="4">
         <f t="shared" si="1"/>
         <v>1.169351230425056</v>
       </c>
@@ -6000,7 +5993,7 @@
       <c r="G64">
         <v>4.777E-3</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="4">
         <f t="shared" si="1"/>
         <v>0.62214779150094202</v>
       </c>
@@ -6027,7 +6020,7 @@
       <c r="G65">
         <v>5.7149999999999996E-3</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="4">
         <f t="shared" si="1"/>
         <v>0.82764654418197725</v>
       </c>
@@ -6054,7 +6047,7 @@
       <c r="G66">
         <v>7.6610000000000003E-3</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="4">
         <f t="shared" si="1"/>
         <v>0.87501631640777966</v>
       </c>
@@ -6081,7 +6074,7 @@
       <c r="G67">
         <v>1.0725999999999999E-2</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="4">
         <f t="shared" si="1"/>
         <v>0.80924855491329484</v>
       </c>
@@ -6108,7 +6101,7 @@
       <c r="G68">
         <v>1.1847999999999999E-2</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="4">
         <f t="shared" si="1"/>
         <v>0.9645087778528022</v>
       </c>
@@ -6135,7 +6128,7 @@
       <c r="G69">
         <v>1.6740999999999999E-2</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="4">
         <f>G208/(G69*C69)</f>
         <v>1.0735619138641659</v>
       </c>
@@ -6162,7 +6155,7 @@
       <c r="G70">
         <v>2.3436999999999999E-2</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="4">
         <f t="shared" si="1"/>
         <v>1.0375261338908564</v>
       </c>
@@ -6189,7 +6182,7 @@
       <c r="G71">
         <v>3.2643999999999999E-2</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="4">
         <f t="shared" si="1"/>
         <v>0.97760691091777963</v>
       </c>
@@ -6216,7 +6209,7 @@
       <c r="G72">
         <v>4.6738000000000002E-2</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="4">
         <f t="shared" si="1"/>
         <v>1.0105588600282425</v>
       </c>
@@ -6243,7 +6236,7 @@
       <c r="G73">
         <v>6.7446000000000006E-2</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="4">
         <f t="shared" si="1"/>
         <v>1.0439536814636894</v>
       </c>
@@ -6270,7 +6263,7 @@
       <c r="G74">
         <v>9.5505999999999994E-2</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="4">
         <f t="shared" si="1"/>
         <v>0.9471132703704479</v>
       </c>
@@ -6297,7 +6290,7 @@
       <c r="G75">
         <v>0.13208900000000001</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="4">
         <f t="shared" si="1"/>
         <v>1.0092740500722996</v>
       </c>
@@ -6324,7 +6317,7 @@
       <c r="G76">
         <v>0.18889</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="4">
         <f t="shared" si="1"/>
         <v>0.97844512679337181</v>
       </c>
@@ -6351,7 +6344,7 @@
       <c r="G77">
         <v>0.26509500000000003</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="4">
         <f t="shared" si="1"/>
         <v>1.0007054074954262</v>
       </c>
@@ -6378,7 +6371,7 @@
       <c r="G78">
         <v>0.40046599999999999</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="4">
         <f t="shared" si="1"/>
         <v>0.90759265455744065</v>
       </c>
@@ -6405,7 +6398,7 @@
       <c r="G79">
         <v>0.53524899999999997</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="4">
         <f t="shared" si="1"/>
         <v>0.97434091422870472</v>
       </c>
@@ -6432,7 +6425,7 @@
       <c r="G80">
         <v>0.76479399999999997</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="4">
         <f t="shared" si="1"/>
         <v>1.0088141381862306</v>
       </c>
@@ -6459,7 +6452,7 @@
       <c r="G81">
         <v>1.0666100000000001</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="4">
         <f t="shared" si="1"/>
         <v>0.97900357206476574</v>
       </c>
@@ -6486,7 +6479,7 @@
       <c r="G82">
         <v>1.51129</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="4">
         <f t="shared" si="1"/>
         <v>0.97423724103249543</v>
       </c>
@@ -6513,7 +6506,7 @@
       <c r="G83">
         <v>2.1539199999999998</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="4">
         <f t="shared" si="1"/>
         <v>1.015239656068935</v>
       </c>
@@ -6540,7 +6533,7 @@
       <c r="G84">
         <v>3.0387400000000002</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="4">
         <f t="shared" si="1"/>
         <v>1.0083603730493558</v>
       </c>
@@ -6567,7 +6560,7 @@
       <c r="G85">
         <v>4.31684</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="4">
         <f t="shared" si="1"/>
         <v>1.0194899509826632</v>
       </c>
@@ -6594,7 +6587,7 @@
       <c r="G86">
         <v>6.1320499999999996</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="4">
         <f t="shared" si="1"/>
         <v>1.0097601943885</v>
       </c>
@@ -6621,7 +6614,7 @@
       <c r="G87">
         <v>8.7203599999999994</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="4">
         <f t="shared" si="1"/>
         <v>0.98737896141902415</v>
       </c>
@@ -6648,7 +6641,7 @@
       <c r="G88">
         <v>12.214700000000001</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="4">
         <f t="shared" si="1"/>
         <v>0.97029399002840844</v>
       </c>
@@ -6675,7 +6668,7 @@
       <c r="G89">
         <v>18.0488</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="4">
         <f t="shared" si="1"/>
         <v>0.92366251495944329</v>
       </c>
@@ -6702,7 +6695,7 @@
       <c r="G90">
         <v>24.933599999999998</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6728,7 +6721,7 @@
       <c r="G91">
         <v>34.904600000000002</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6754,7 +6747,7 @@
       <c r="G92" s="1">
         <v>9.1000000000000003E-5</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="4">
         <f>G185/(G92*C92)</f>
         <v>0.14285714285714285</v>
       </c>
@@ -6781,7 +6774,7 @@
       <c r="G93" s="1">
         <v>2.8E-5</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="4">
         <f t="shared" ref="H93:H135" si="2">G186/(G93*C93)</f>
         <v>0.22619047619047622</v>
       </c>
@@ -6808,7 +6801,7 @@
       <c r="G94" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="4">
         <f t="shared" si="2"/>
         <v>0.37878787878787878</v>
       </c>
@@ -6835,7 +6828,7 @@
       <c r="G95" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="4">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -6862,7 +6855,7 @@
       <c r="G96" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="4">
         <f t="shared" si="2"/>
         <v>0.64102564102564108</v>
       </c>
@@ -6889,7 +6882,7 @@
       <c r="G97" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="4">
         <f t="shared" si="2"/>
         <v>0.67619047619047634</v>
       </c>
@@ -6916,7 +6909,7 @@
       <c r="G98" s="1">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="4">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
@@ -6943,7 +6936,7 @@
       <c r="G99" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="4">
         <f t="shared" si="2"/>
         <v>0.75621890547263682</v>
       </c>
@@ -6970,7 +6963,7 @@
       <c r="G100" s="1">
         <v>9.3999999999999994E-5</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="4">
         <f t="shared" si="2"/>
         <v>0.71985815602836889</v>
       </c>
@@ -6997,7 +6990,7 @@
       <c r="G101">
         <v>1.3200000000000001E-4</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="4">
         <f t="shared" si="2"/>
         <v>0.72979797979797967</v>
       </c>
@@ -7024,7 +7017,7 @@
       <c r="G102">
         <v>1.8100000000000001E-4</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="4">
         <f t="shared" si="2"/>
         <v>0.73848987108655606</v>
       </c>
@@ -7051,7 +7044,7 @@
       <c r="G103">
         <v>2.4600000000000002E-4</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="4">
         <f t="shared" si="2"/>
         <v>0.87804878048780488</v>
       </c>
@@ -7078,7 +7071,7 @@
       <c r="G104">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="4">
         <f t="shared" si="2"/>
         <v>0.79313725490196074</v>
       </c>
@@ -7105,7 +7098,7 @@
       <c r="G105">
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="4">
         <f t="shared" si="2"/>
         <v>0.76047904191616766</v>
       </c>
@@ -7132,7 +7125,7 @@
       <c r="G106">
         <v>7.0100000000000002E-4</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="4">
         <f t="shared" si="2"/>
         <v>0.70946267237280081</v>
       </c>
@@ -7159,7 +7152,7 @@
       <c r="G107">
         <v>9.5799999999999998E-4</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="4">
         <f t="shared" si="2"/>
         <v>0.84968684759916502</v>
       </c>
@@ -7186,7 +7179,7 @@
       <c r="G108">
         <v>1.323E-3</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="4">
         <f t="shared" si="2"/>
         <v>0.98538674729150921</v>
       </c>
@@ -7213,7 +7206,7 @@
       <c r="G109">
         <v>2.0330000000000001E-3</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="4">
         <f t="shared" si="2"/>
         <v>0.85702574192490566</v>
       </c>
@@ -7240,7 +7233,7 @@
       <c r="G110">
         <v>2.6419999999999998E-3</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="4">
         <f t="shared" si="2"/>
         <v>0.74993691647741612</v>
       </c>
@@ -7267,7 +7260,7 @@
       <c r="G111">
         <v>3.7750000000000001E-3</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="4">
         <f t="shared" si="2"/>
         <v>0.83532008830022075</v>
       </c>
@@ -7294,7 +7287,7 @@
       <c r="G112">
         <v>5.561E-3</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="4">
         <f t="shared" si="2"/>
         <v>0.80363244020859559</v>
       </c>
@@ -7321,7 +7314,7 @@
       <c r="G113">
         <v>7.4980000000000003E-3</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="4">
         <f t="shared" si="2"/>
         <v>0.77176135858451145</v>
       </c>
@@ -7348,7 +7341,7 @@
       <c r="G114">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="4">
         <f t="shared" si="2"/>
         <v>0.72555555555555551</v>
       </c>
@@ -7375,7 +7368,7 @@
       <c r="G115">
         <v>1.4966E-2</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="4">
         <f t="shared" si="2"/>
         <v>0.80059245400685997</v>
       </c>
@@ -7402,7 +7395,7 @@
       <c r="G116">
         <v>2.1146999999999999E-2</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="4">
         <f t="shared" si="2"/>
         <v>0.76658627701328796</v>
       </c>
@@ -7429,7 +7422,7 @@
       <c r="G117">
         <v>2.9936000000000001E-2</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="4">
         <f t="shared" si="2"/>
         <v>0.71069392481738813</v>
       </c>
@@ -7456,7 +7449,7 @@
       <c r="G118">
         <v>4.4719000000000002E-2</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="4">
         <f t="shared" si="2"/>
         <v>0.70412278151717766</v>
       </c>
@@ -7483,7 +7476,7 @@
       <c r="G119">
         <v>5.9628E-2</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="4">
         <f t="shared" si="2"/>
         <v>0.78721965072337385</v>
       </c>
@@ -7510,7 +7503,7 @@
       <c r="G120">
         <v>8.4371000000000002E-2</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="4">
         <f t="shared" si="2"/>
         <v>0.71474005681256969</v>
       </c>
@@ -7537,7 +7530,7 @@
       <c r="G121">
         <v>0.121517</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="4">
         <f t="shared" si="2"/>
         <v>0.73138737789774266</v>
       </c>
@@ -7564,7 +7557,7 @@
       <c r="G122">
         <v>0.168518</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="4">
         <f t="shared" si="2"/>
         <v>0.73115235958967773</v>
       </c>
@@ -7591,7 +7584,7 @@
       <c r="G123">
         <v>0.242562</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="4">
         <f>G216/(G123*C123)</f>
         <v>0.72911118257050433</v>
       </c>
@@ -7618,7 +7611,7 @@
       <c r="G124">
         <v>0.34930800000000001</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="4">
         <f t="shared" si="2"/>
         <v>0.69367625896534479</v>
       </c>
@@ -7645,7 +7638,7 @@
       <c r="G125">
         <v>0.48991499999999999</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="4">
         <f t="shared" si="2"/>
         <v>0.70966732324314752</v>
       </c>
@@ -7672,7 +7665,7 @@
       <c r="G126">
         <v>0.69035500000000005</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="4">
         <f t="shared" si="2"/>
         <v>0.74506111589930779</v>
       </c>
@@ -7699,7 +7692,7 @@
       <c r="G127">
         <v>0.961561</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="4">
         <f t="shared" si="2"/>
         <v>0.7239720967607185</v>
       </c>
@@ -7726,7 +7719,7 @@
       <c r="G128">
         <v>1.3647499999999999</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="4">
         <f t="shared" si="2"/>
         <v>0.71923062832020523</v>
       </c>
@@ -7753,7 +7746,7 @@
       <c r="G129">
         <v>1.9288400000000001</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="4">
         <f t="shared" si="2"/>
         <v>0.75580659878476186</v>
       </c>
@@ -7780,7 +7773,7 @@
       <c r="G130">
         <v>2.75773</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="4">
         <f t="shared" si="2"/>
         <v>0.74074087504336295</v>
       </c>
@@ -7807,7 +7800,7 @@
       <c r="G131">
         <v>3.8719299999999999</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="4">
         <f t="shared" si="2"/>
         <v>0.75775732860184275</v>
       </c>
@@ -7834,7 +7827,7 @@
       <c r="G132">
         <v>5.47628</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="4">
         <f t="shared" si="2"/>
         <v>0.75378419900613802</v>
       </c>
@@ -7861,7 +7854,7 @@
       <c r="G133">
         <v>7.7355400000000003</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="4">
         <f t="shared" si="2"/>
         <v>0.74205549968069462</v>
       </c>
@@ -7888,7 +7881,7 @@
       <c r="G134">
         <v>11.358000000000001</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="4">
         <f t="shared" si="2"/>
         <v>0.69565357750777723</v>
       </c>
@@ -7915,7 +7908,7 @@
       <c r="G135">
         <v>15.5725</v>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="4">
         <f t="shared" si="2"/>
         <v>0.71369401187991643</v>
       </c>
@@ -7942,7 +7935,7 @@
       <c r="G136">
         <v>21.956399999999999</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7968,7 +7961,7 @@
       <c r="G137">
         <v>31.3964</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7994,7 +7987,7 @@
       <c r="G138" s="1">
         <v>8.8999999999999995E-5</v>
       </c>
-      <c r="H138" s="1">
+      <c r="H138" s="4">
         <f>G185/(G138*C138)</f>
         <v>0.10955056179775281</v>
       </c>
@@ -8021,7 +8014,7 @@
       <c r="G139" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="H139" s="1">
+      <c r="H139" s="4">
         <f t="shared" ref="H139:H184" si="3">G186/(G139*C139)</f>
         <v>0.25</v>
       </c>
@@ -8048,7 +8041,7 @@
       <c r="G140" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="4">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
@@ -8075,7 +8068,7 @@
       <c r="G141" s="1">
         <v>2.8E-5</v>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="4">
         <f t="shared" si="3"/>
         <v>0.29464285714285715</v>
       </c>
@@ -8102,7 +8095,7 @@
       <c r="G142" s="1">
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="H142" s="1">
+      <c r="H142" s="4">
         <f t="shared" si="3"/>
         <v>0.32051282051282054</v>
       </c>
@@ -8129,7 +8122,7 @@
       <c r="G143" s="1">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="4">
         <f t="shared" si="3"/>
         <v>0.36979166666666669</v>
       </c>
@@ -8156,7 +8149,7 @@
       <c r="G144" s="1">
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="H144" s="1">
+      <c r="H144" s="4">
         <f t="shared" si="3"/>
         <v>0.52127659574468088</v>
       </c>
@@ -8183,7 +8176,7 @@
       <c r="G145" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H145" s="4">
         <f t="shared" si="3"/>
         <v>0.56716417910447758</v>
       </c>
@@ -8210,7 +8203,7 @@
       <c r="G146" s="1">
         <v>8.2000000000000001E-5</v>
       </c>
-      <c r="H146" s="1">
+      <c r="H146" s="4">
         <f t="shared" si="3"/>
         <v>0.61890243902439024</v>
       </c>
@@ -8237,7 +8230,7 @@
       <c r="G147">
         <v>1.22E-4</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="4">
         <f t="shared" si="3"/>
         <v>0.59221311475409832</v>
       </c>
@@ -8264,7 +8257,7 @@
       <c r="G148">
         <v>1.5799999999999999E-4</v>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="4">
         <f t="shared" si="3"/>
         <v>0.634493670886076</v>
       </c>
@@ -8291,7 +8284,7 @@
       <c r="G149">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="H149" s="1">
+      <c r="H149" s="4">
         <f t="shared" si="3"/>
         <v>0.70434782608695656</v>
       </c>
@@ -8318,7 +8311,7 @@
       <c r="G150">
         <v>3.2899999999999997E-4</v>
       </c>
-      <c r="H150" s="1">
+      <c r="H150" s="4">
         <f t="shared" si="3"/>
         <v>0.61474164133738607</v>
       </c>
@@ -8345,7 +8338,7 @@
       <c r="G151">
         <v>4.4000000000000002E-4</v>
       </c>
-      <c r="H151" s="1">
+      <c r="H151" s="4">
         <f t="shared" si="3"/>
         <v>0.64943181818181817</v>
       </c>
@@ -8372,7 +8365,7 @@
       <c r="G152">
         <v>6.1899999999999998E-4</v>
       </c>
-      <c r="H152" s="1">
+      <c r="H152" s="4">
         <f t="shared" si="3"/>
         <v>0.60258481421647825</v>
       </c>
@@ -8399,7 +8392,7 @@
       <c r="G153">
         <v>8.6399999999999997E-4</v>
       </c>
-      <c r="H153" s="1">
+      <c r="H153" s="4">
         <f t="shared" si="3"/>
         <v>0.70659722222222232</v>
       </c>
@@ -8426,7 +8419,7 @@
       <c r="G154">
         <v>1.2099999999999999E-3</v>
       </c>
-      <c r="H154" s="1">
+      <c r="H154" s="4">
         <f t="shared" si="3"/>
         <v>0.80805785123966956</v>
       </c>
@@ -8453,7 +8446,7 @@
       <c r="G155">
         <v>1.7149999999999999E-3</v>
       </c>
-      <c r="H155" s="1">
+      <c r="H155" s="4">
         <f t="shared" si="3"/>
         <v>0.76195335276967935</v>
       </c>
@@ -8480,7 +8473,7 @@
       <c r="G156">
         <v>2.9719999999999998E-3</v>
       </c>
-      <c r="H156" s="1">
+      <c r="H156" s="4">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -8507,7 +8500,7 @@
       <c r="G157">
         <v>4.1450000000000002E-3</v>
       </c>
-      <c r="H157" s="1">
+      <c r="H157" s="4">
         <f t="shared" si="3"/>
         <v>0.57056694813027742</v>
       </c>
@@ -8534,7 +8527,7 @@
       <c r="G158">
         <v>5.0549999999999996E-3</v>
       </c>
-      <c r="H158" s="1">
+      <c r="H158" s="4">
         <f t="shared" si="3"/>
         <v>0.66305637982195853</v>
       </c>
@@ -8561,7 +8554,7 @@
       <c r="G159">
         <v>6.8320000000000004E-3</v>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="4">
         <f t="shared" si="3"/>
         <v>0.63524590163934425</v>
       </c>
@@ -8588,7 +8581,7 @@
       <c r="G160">
         <v>9.6279999999999994E-3</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="4">
         <f t="shared" si="3"/>
         <v>0.59345139177399253</v>
       </c>
@@ -8615,7 +8608,7 @@
       <c r="G161">
         <v>1.4113000000000001E-2</v>
       </c>
-      <c r="H161" s="1">
+      <c r="H161" s="4">
         <f t="shared" si="3"/>
         <v>0.63673563381279663</v>
       </c>
@@ -8642,7 +8635,7 @@
       <c r="G162">
         <v>2.0246E-2</v>
       </c>
-      <c r="H162" s="1">
+      <c r="H162" s="4">
         <f t="shared" si="3"/>
         <v>0.60052602983305348</v>
       </c>
@@ -8669,7 +8662,7 @@
       <c r="G163">
         <v>3.1106000000000002E-2</v>
       </c>
-      <c r="H163" s="1">
+      <c r="H163" s="4">
         <f t="shared" si="3"/>
         <v>0.51297177393428917</v>
       </c>
@@ -8696,7 +8689,7 @@
       <c r="G164">
         <v>4.3052E-2</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H164" s="4">
         <f>G211/(G164*C164)</f>
         <v>0.54854013750812969</v>
       </c>
@@ -8723,7 +8716,7 @@
       <c r="G165">
         <v>5.6522999999999997E-2</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H165" s="4">
         <f t="shared" si="3"/>
         <v>0.62284822107814519</v>
       </c>
@@ -8750,7 +8743,7 @@
       <c r="G166">
         <v>8.1905000000000006E-2</v>
       </c>
-      <c r="H166" s="1">
+      <c r="H166" s="4">
         <f t="shared" si="3"/>
         <v>0.55219461571332629</v>
       </c>
@@ -8777,7 +8770,7 @@
       <c r="G167">
         <v>0.115707</v>
       </c>
-      <c r="H167" s="1">
+      <c r="H167" s="4">
         <f t="shared" si="3"/>
         <v>0.57608442013015626</v>
       </c>
@@ -8804,7 +8797,7 @@
       <c r="G168">
         <v>0.15582699999999999</v>
       </c>
-      <c r="H168" s="1">
+      <c r="H168" s="4">
         <f t="shared" si="3"/>
         <v>0.59302463629537883</v>
       </c>
@@ -8831,7 +8824,7 @@
       <c r="G169">
         <v>0.22486800000000001</v>
       </c>
-      <c r="H169" s="1">
+      <c r="H169" s="4">
         <f t="shared" si="3"/>
         <v>0.58986160769873885</v>
       </c>
@@ -8858,7 +8851,7 @@
       <c r="G170">
         <v>0.31640800000000002</v>
       </c>
-      <c r="H170" s="1">
+      <c r="H170" s="4">
         <f t="shared" si="3"/>
         <v>0.57435336653940483</v>
       </c>
@@ -8885,7 +8878,7 @@
       <c r="G171">
         <v>0.45439600000000002</v>
       </c>
-      <c r="H171" s="1">
+      <c r="H171" s="4">
         <f t="shared" si="3"/>
         <v>0.57385518358436249</v>
       </c>
@@ -8912,7 +8905,7 @@
       <c r="G172">
         <v>0.64784699999999995</v>
       </c>
-      <c r="H172" s="1">
+      <c r="H172" s="4">
         <f t="shared" si="3"/>
         <v>0.59546081096308234</v>
       </c>
@@ -8939,7 +8932,7 @@
       <c r="G173">
         <v>0.90717000000000003</v>
       </c>
-      <c r="H173" s="1">
+      <c r="H173" s="4">
         <f t="shared" si="3"/>
         <v>0.57553435409019249</v>
       </c>
@@ -8966,7 +8959,7 @@
       <c r="G174">
         <v>1.2747200000000001</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H174" s="4">
         <f t="shared" si="3"/>
         <v>0.5775209457763274</v>
       </c>
@@ -8993,7 +8986,7 @@
       <c r="G175">
         <v>1.8032699999999999</v>
       </c>
-      <c r="H175" s="1">
+      <c r="H175" s="4">
         <f t="shared" si="3"/>
         <v>0.60632767139696231</v>
       </c>
@@ -9020,7 +9013,7 @@
       <c r="G176">
         <v>2.5472100000000002</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="4">
         <f t="shared" si="3"/>
         <v>0.60147082494179904</v>
       </c>
@@ -9047,7 +9040,7 @@
       <c r="G177">
         <v>3.59619</v>
       </c>
-      <c r="H177" s="1">
+      <c r="H177" s="4">
         <f t="shared" si="3"/>
         <v>0.61189411571691144</v>
       </c>
@@ -9074,7 +9067,7 @@
       <c r="G178">
         <v>5.1328399999999998</v>
       </c>
-      <c r="H178" s="1">
+      <c r="H178" s="4">
         <f t="shared" si="3"/>
         <v>0.60316510937414769</v>
       </c>
@@ -9101,7 +9094,7 @@
       <c r="G179">
         <v>7.6058899999999996</v>
       </c>
-      <c r="H179" s="1">
+      <c r="H179" s="4">
         <f t="shared" si="3"/>
         <v>0.5660284332274067</v>
       </c>
@@ -9128,7 +9121,7 @@
       <c r="G180">
         <v>10.416</v>
       </c>
-      <c r="H180" s="1">
+      <c r="H180" s="4">
         <f t="shared" si="3"/>
         <v>0.56892521121351769</v>
       </c>
@@ -9155,7 +9148,7 @@
       <c r="G181">
         <v>15.456300000000001</v>
       </c>
-      <c r="H181" s="1">
+      <c r="H181" s="4">
         <f t="shared" si="3"/>
         <v>0.53929465654781539</v>
       </c>
@@ -9182,7 +9175,7 @@
       <c r="G182">
         <v>20.37</v>
       </c>
-      <c r="H182" s="1">
+      <c r="H182" s="4">
         <f>G229/(G182*C182)</f>
         <v>0</v>
       </c>
@@ -9209,7 +9202,7 @@
       <c r="G183">
         <v>28.802499999999998</v>
       </c>
-      <c r="H183" s="1">
+      <c r="H183" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9236,7 +9229,7 @@
       <c r="G184">
         <v>45.865099999999998</v>
       </c>
-      <c r="H184" s="1">
+      <c r="H184" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9263,7 +9256,7 @@
       <c r="G185" s="1">
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="H185" s="1">
+      <c r="H185" s="4">
         <f>G185/(G185*C185)</f>
         <v>1</v>
       </c>
@@ -9290,7 +9283,7 @@
       <c r="G186" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="H186" s="1">
+      <c r="H186" s="4">
         <f t="shared" ref="H186:H227" si="4">G186/(G186*C186)</f>
         <v>1</v>
       </c>
@@ -9317,7 +9310,7 @@
       <c r="G187" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="H187" s="1">
+      <c r="H187" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9344,7 +9337,7 @@
       <c r="G188" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="H188" s="1">
+      <c r="H188" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9371,7 +9364,7 @@
       <c r="G189" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="H189" s="1">
+      <c r="H189" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9398,7 +9391,7 @@
       <c r="G190" s="1">
         <v>7.1000000000000005E-5</v>
       </c>
-      <c r="H190" s="1">
+      <c r="H190" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9425,7 +9418,7 @@
       <c r="G191" s="1">
         <v>9.7999999999999997E-5</v>
       </c>
-      <c r="H191" s="1">
+      <c r="H191" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9452,7 +9445,7 @@
       <c r="G192">
         <v>1.5200000000000001E-4</v>
       </c>
-      <c r="H192" s="1">
+      <c r="H192" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9479,7 +9472,7 @@
       <c r="G193">
         <v>2.03E-4</v>
       </c>
-      <c r="H193" s="1">
+      <c r="H193" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9506,7 +9499,7 @@
       <c r="G194">
         <v>2.8899999999999998E-4</v>
       </c>
-      <c r="H194" s="1">
+      <c r="H194" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9533,7 +9526,7 @@
       <c r="G195">
         <v>4.0099999999999999E-4</v>
       </c>
-      <c r="H195" s="1">
+      <c r="H195" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9560,7 +9553,7 @@
       <c r="G196">
         <v>6.4800000000000003E-4</v>
       </c>
-      <c r="H196" s="1">
+      <c r="H196" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9587,7 +9580,7 @@
       <c r="G197">
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="H197" s="1">
+      <c r="H197" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9614,7 +9607,7 @@
       <c r="G198">
         <v>1.1429999999999999E-3</v>
       </c>
-      <c r="H198" s="1">
+      <c r="H198" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9641,7 +9634,7 @@
       <c r="G199">
         <v>1.4920000000000001E-3</v>
       </c>
-      <c r="H199" s="1">
+      <c r="H199" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9668,7 +9661,7 @@
       <c r="G200">
         <v>2.4420000000000002E-3</v>
       </c>
-      <c r="H200" s="1">
+      <c r="H200" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9695,7 +9688,7 @@
       <c r="G201">
         <v>3.9110000000000004E-3</v>
       </c>
-      <c r="H201" s="1">
+      <c r="H201" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9722,7 +9715,7 @@
       <c r="G202">
         <v>5.2269999999999999E-3</v>
       </c>
-      <c r="H202" s="1">
+      <c r="H202" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9749,7 +9742,7 @@
       <c r="G203">
         <v>5.9439999999999996E-3</v>
       </c>
-      <c r="H203" s="1">
+      <c r="H203" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9776,7 +9769,7 @@
       <c r="G204">
         <v>9.4599999999999997E-3</v>
       </c>
-      <c r="H204" s="1">
+      <c r="H204" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9803,7 +9796,7 @@
       <c r="G205">
         <v>1.3407000000000001E-2</v>
       </c>
-      <c r="H205" s="1">
+      <c r="H205" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9830,7 +9823,7 @@
       <c r="G206">
         <v>1.736E-2</v>
       </c>
-      <c r="H206" s="1">
+      <c r="H206" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9857,7 +9850,7 @@
       <c r="G207">
         <v>2.2855E-2</v>
       </c>
-      <c r="H207" s="1">
+      <c r="H207" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9884,7 +9877,7 @@
       <c r="G208">
         <v>3.5944999999999998E-2</v>
       </c>
-      <c r="H208" s="1">
+      <c r="H208" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9911,7 +9904,7 @@
       <c r="G209">
         <v>4.8633000000000003E-2</v>
       </c>
-      <c r="H209" s="1">
+      <c r="H209" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9938,7 +9931,7 @@
       <c r="G210">
         <v>6.3825999999999994E-2</v>
       </c>
-      <c r="H210" s="1">
+      <c r="H210" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9965,7 +9958,7 @@
       <c r="G211">
         <v>9.4463000000000005E-2</v>
       </c>
-      <c r="H211" s="1">
+      <c r="H211" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -9992,7 +9985,7 @@
       <c r="G212">
         <v>0.140821</v>
       </c>
-      <c r="H212" s="1">
+      <c r="H212" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10019,7 +10012,7 @@
       <c r="G213">
         <v>0.18090999999999999</v>
       </c>
-      <c r="H213" s="1">
+      <c r="H213" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10046,7 +10039,7 @@
       <c r="G214">
         <v>0.26662799999999998</v>
       </c>
-      <c r="H214" s="1">
+      <c r="H214" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10073,7 +10066,7 @@
       <c r="G215">
         <v>0.36963699999999999</v>
       </c>
-      <c r="H215" s="1">
+      <c r="H215" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10100,7 +10093,7 @@
       <c r="G216">
         <v>0.53056400000000004</v>
       </c>
-      <c r="H216" s="1">
+      <c r="H216" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10127,7 +10120,7 @@
       <c r="G217">
         <v>0.72692000000000001</v>
       </c>
-      <c r="H217" s="1">
+      <c r="H217" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10154,7 +10147,7 @@
       <c r="G218">
         <v>1.0430299999999999</v>
       </c>
-      <c r="H218" s="1">
+      <c r="H218" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10181,7 +10174,7 @@
       <c r="G219">
         <v>1.5430699999999999</v>
       </c>
-      <c r="H219" s="1">
+      <c r="H219" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10208,7 +10201,7 @@
       <c r="G220">
         <v>2.0884299999999998</v>
       </c>
-      <c r="H220" s="1">
+      <c r="H220" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10235,7 +10228,7 @@
       <c r="G221">
         <v>2.9447100000000002</v>
       </c>
-      <c r="H221" s="1">
+      <c r="H221" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10262,7 +10255,7 @@
       <c r="G222">
         <v>4.3734900000000003</v>
       </c>
-      <c r="H222" s="1">
+      <c r="H222" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10289,7 +10282,7 @@
       <c r="G223">
         <v>6.1282899999999998</v>
       </c>
-      <c r="H223" s="1">
+      <c r="H223" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10316,7 +10309,7 @@
       <c r="G224">
         <v>8.8019499999999997</v>
       </c>
-      <c r="H224" s="1">
+      <c r="H224" s="4">
         <f>G224/(G224*C224)</f>
         <v>1</v>
       </c>
@@ -10343,7 +10336,7 @@
       <c r="G225">
         <v>12.383800000000001</v>
       </c>
-      <c r="H225" s="1">
+      <c r="H225" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10370,7 +10363,7 @@
       <c r="G226">
         <v>17.220600000000001</v>
       </c>
-      <c r="H226" s="1">
+      <c r="H226" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10397,7 +10390,7 @@
       <c r="G227">
         <v>23.703700000000001</v>
       </c>
-      <c r="H227" s="1">
+      <c r="H227" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10424,7 +10417,7 @@
       <c r="G228">
         <v>33.341999999999999</v>
       </c>
-      <c r="H228" s="1">
+      <c r="H228" s="4">
         <f>G228/(G228*C228)</f>
         <v>1</v>
       </c>
